--- a/data/financial_statements/sofp/UNP.xlsx
+++ b/data/financial_statements/sofp/UNP.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,2508 +584,2556 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>1326000000</v>
+        <v>1019000000</v>
       </c>
       <c r="C2">
-        <v>856000000</v>
+        <v>1313000000</v>
       </c>
       <c r="D2">
-        <v>972000000</v>
+        <v>834000000</v>
       </c>
       <c r="E2">
-        <v>1025000000</v>
+        <v>955000000</v>
       </c>
       <c r="F2">
-        <v>1272000000</v>
+        <v>1006000000</v>
       </c>
       <c r="G2">
+        <v>1240000000</v>
+      </c>
+      <c r="H2">
         <v>1161000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1243000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1859000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2661000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2766000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1190000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>891000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1310000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1109000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1119000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1333000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1900000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1694000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1138000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1365000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1937000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1376000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1139000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1337000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>2239000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>2160000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>2673000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1391000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1078000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>2041000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1587000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1586000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1887000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1537000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1857000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1432000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1366000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1845000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1917000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2052000000</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C3">
         <v>2052000000</v>
       </c>
       <c r="D3">
+        <v>2052000000</v>
+      </c>
+      <c r="E3">
         <v>1958000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1722000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1679000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1666000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1610000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1505000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1565000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1388000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1669000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1595000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1650000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1809000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1672000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1755000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1792000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>1634000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1571000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1493000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1428000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1357000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>1279000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>1258000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>1351000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>1373000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>1355000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>1356000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>1508000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1513000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>1564000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>1611000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1635000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>1666000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>1542000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>1414000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>1469000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>1468000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1512000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>794000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>790000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>726000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>621000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>664000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>688000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>659000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>638000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>649000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>668000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>692000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>751000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>771000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>775000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>780000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>742000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>789000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>772000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>808000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>749000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>742000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>726000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>760000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>717000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>690000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>660000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>716000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>736000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>741000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>762000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>744000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>712000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>736000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>739000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>705000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>653000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>683000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>654000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>655000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>233000000</v>
+        <v>2933000000</v>
       </c>
       <c r="C5">
-        <v>278000000</v>
+        <v>246000000</v>
       </c>
       <c r="D5">
-        <v>220000000</v>
+        <v>300000000</v>
       </c>
       <c r="E5">
-        <v>183000000</v>
+        <v>237000000</v>
       </c>
       <c r="F5">
-        <v>195000000</v>
+        <v>202000000</v>
       </c>
       <c r="G5">
+        <v>227000000</v>
+      </c>
+      <c r="H5">
         <v>249000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>207000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>212000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>255000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>261000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>253000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>222000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>342000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>393000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>382000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>333000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>335000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>394000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>380000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>399000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>342000000</v>
-      </c>
-      <c r="W5">
-        <v>410000000</v>
       </c>
       <c r="X5">
         <v>410000000</v>
       </c>
       <c r="Y5">
+        <v>410000000</v>
+      </c>
+      <c r="Z5">
         <v>284000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>322000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>373000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>339000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>647000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>397000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>432000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>334000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>492000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>304000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>322000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>316000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>223000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>316000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>334000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>311000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>3952000000</v>
+      </c>
+      <c r="C6">
         <v>4405000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3976000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3876000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3551000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3810000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3764000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3719000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4214000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5130000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5083000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3804000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>3459000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4073000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>4086000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>3953000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>4163000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>4816000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>4494000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>3897000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>4006000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>4449000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>3869000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>3588000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3596000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>4602000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>4566000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>5083000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>4130000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>3942000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>4983000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>4479000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>4401000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>4780000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>4503000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>4679000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>3990000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>4064000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>4543000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>4646000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>57392000000</v>
+        <v>56038000000</v>
       </c>
       <c r="C7">
-        <v>57021000000</v>
+        <v>55689000000</v>
       </c>
       <c r="D7">
-        <v>56791000000</v>
+        <v>55315000000</v>
       </c>
       <c r="E7">
-        <v>56658000000</v>
+        <v>55064000000</v>
       </c>
       <c r="F7">
-        <v>55992000000</v>
+        <v>54871000000</v>
       </c>
       <c r="G7">
+        <v>54362000000</v>
+      </c>
+      <c r="H7">
         <v>54148000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>54062000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>54161000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>54375000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>54270000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>54121000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>53916000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>53488000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>53115000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>52856000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>52679000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>52210000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>51947000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>51696000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>51605000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>51036000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>50814000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>50550000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>50389000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>49939000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>49461000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>49071000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>48866000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>48149000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>47512000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>46928000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>46272000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>45553000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>44901000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>44189000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>43749000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>43311000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>42911000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>42376000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>2318000000</v>
+        <v>2375000000</v>
       </c>
       <c r="C8">
-        <v>2291000000</v>
+        <v>2314000000</v>
       </c>
       <c r="D8">
-        <v>2283000000</v>
+        <v>2287000000</v>
       </c>
       <c r="E8">
-        <v>2245000000</v>
+        <v>2279000000</v>
       </c>
       <c r="F8">
-        <v>2285000000</v>
+        <v>2241000000</v>
       </c>
       <c r="G8">
+        <v>2273000000</v>
+      </c>
+      <c r="H8">
         <v>2277000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2167000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2164000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2071000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2042000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2078000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2050000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>2003000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1989000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1951000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1912000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1887000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1856000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1810000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1809000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1566000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1504000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>1480000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>1457000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>1446000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>1408000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>1404000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>1410000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>1373000000</v>
-      </c>
-      <c r="AE8">
-        <v>1375000000</v>
       </c>
       <c r="AF8">
         <v>1375000000</v>
       </c>
       <c r="AG8">
+        <v>1375000000</v>
+      </c>
+      <c r="AH8">
         <v>1390000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>1384000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1369000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>1344000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>1321000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>1282000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>1272000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1240000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>1228000000</v>
+        <v>1412000000</v>
       </c>
       <c r="C9">
+        <v>1232000000</v>
+      </c>
+      <c r="D9">
+        <v>1156000000</v>
+      </c>
+      <c r="E9">
         <v>1105000000</v>
       </c>
-      <c r="D9">
-        <v>1051000000</v>
-      </c>
-      <c r="E9">
-        <v>1020000000</v>
-      </c>
       <c r="F9">
-        <v>273000000</v>
+        <v>1075000000</v>
       </c>
       <c r="G9">
+        <v>285000000</v>
+      </c>
+      <c r="H9">
         <v>249000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>264000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>249000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>496000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>460000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>440000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>436000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>483000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>442000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>413000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>393000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>399000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>392000000</v>
-      </c>
-      <c r="T9">
-        <v>386000000</v>
       </c>
       <c r="U9">
         <v>386000000</v>
       </c>
       <c r="V9">
+        <v>386000000</v>
+      </c>
+      <c r="W9">
         <v>346000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>291000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>282000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>276000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>318000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>255000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>214000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>194000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>299000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>307000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>363000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>309000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>851000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>789000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>686000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>671000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>301000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>300000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>299000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>61497000000</v>
+      </c>
+      <c r="C10">
         <v>60938000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>60464000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>60175000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>59974000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>58550000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>58309000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>58074000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>58184000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>58584000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>58472000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>58412000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>58214000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>57905000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>57622000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>57366000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>54984000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>54496000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>54195000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>53892000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>53800000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>52948000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>52609000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>52312000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>52122000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>51703000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>51124000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>50689000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>50470000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>49821000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>49194000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>48666000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>47971000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>47788000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>47059000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>46219000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>45741000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>44894000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>44483000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>43915000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>65449000000</v>
+      </c>
+      <c r="C11">
         <v>65343000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>64440000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>64051000000</v>
       </c>
-      <c r="E11">
-        <v>64482000000</v>
-      </c>
       <c r="F11">
+        <v>63525000000</v>
+      </c>
+      <c r="G11">
         <v>62360000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>62073000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>61793000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>62398000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>63714000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>63555000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>62216000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>61673000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>61978000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>61708000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>61319000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>59147000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>59312000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>58689000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>57789000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>57806000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>57397000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>56478000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>55900000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>55718000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>56305000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>55690000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>55772000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>54600000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>53763000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>54177000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>53145000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>52372000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>52568000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>51562000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>50898000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>49731000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>48958000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>49026000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>48561000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>916000000</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C12">
-        <v>896000000</v>
+        <v>4034000000</v>
       </c>
       <c r="D12">
-        <v>868000000</v>
+        <v>3668000000</v>
       </c>
       <c r="E12">
-        <v>752000000</v>
+        <v>3903000000</v>
       </c>
       <c r="F12">
-        <v>683000000</v>
+        <v>3578000000</v>
       </c>
       <c r="G12">
+        <v>3276000000</v>
+      </c>
+      <c r="H12">
         <v>3247000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>3306000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3104000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>2861000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>3289000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3130000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>3094000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>3166000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>3368000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>3559000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>3160000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>3061000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2916000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>2855000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>3139000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>2928000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>2875000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>3125000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>2882000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>2850000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>2686000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>2885000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>2612000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>2987000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>2982000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>2974000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>3303000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>3373000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>3319000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>3556000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>3086000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>2964000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>3092000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>3058000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>2004000000</v>
+        <v>1678000000</v>
       </c>
       <c r="C13">
-        <v>2648000000</v>
+        <v>1678000000</v>
       </c>
       <c r="D13">
-        <v>1864000000</v>
+        <v>2334000000</v>
       </c>
       <c r="E13">
-        <v>2496000000</v>
+        <v>1559000000</v>
       </c>
       <c r="F13">
-        <v>2141000000</v>
+        <v>2166000000</v>
       </c>
       <c r="G13">
+        <v>1835000000</v>
+      </c>
+      <c r="H13">
         <v>1110000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1565000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1069000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1980000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>1990000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>1511000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1257000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1421000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>2297000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1703000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1466000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1468000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1456000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1891000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>800000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>903000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>531000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>723000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>758000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>407000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>409000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>402000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>594000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>521000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>431000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>416000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>461000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>460000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>458000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>632000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>705000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>691000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>733000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>552000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>3842000000</v>
+      </c>
+      <c r="C14">
         <v>1938000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1732000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1552000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1673000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1543000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1569000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1404000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1536000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1354000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1405000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>1339000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1487000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>5520000000</v>
+      </c>
+      <c r="C15">
         <v>5712000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>6002000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>5462000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>5744000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>5111000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>4357000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4871000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4173000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4841000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>5279000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>4641000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>4351000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>4587000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>5665000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>5262000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>4626000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>4529000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>4372000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>4746000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>3939000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>3831000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>3406000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>3848000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>3640000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>3257000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>3095000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>3287000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>3206000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>3508000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>3413000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>3390000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>3764000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>3833000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>3777000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>4188000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>3791000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>3655000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>3825000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>3610000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>33047000000</v>
+        <v>31648000000</v>
       </c>
       <c r="C16">
-        <v>30968000000</v>
+        <v>31744000000</v>
       </c>
       <c r="D16">
-        <v>31971000000</v>
+        <v>29673000000</v>
       </c>
       <c r="E16">
-        <v>28992000000</v>
+        <v>30680000000</v>
       </c>
       <c r="F16">
-        <v>28822000000</v>
+        <v>27563000000</v>
       </c>
       <c r="G16">
+        <v>27560000000</v>
+      </c>
+      <c r="H16">
         <v>27702000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>25117000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>25660000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>26080000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>26439000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>26365000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>23943000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>24314000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>22955000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>23409000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>20925000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>20943000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>21357000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>15697000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>16144000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>15930000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>15229000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>14310000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>14249000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>15205000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>14777000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>14791000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>13607000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>12798000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>12908000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>11884000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>10952000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>11045000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>10385000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>9544000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>8872000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>8764000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>9076000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>9309000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>13033000000</v>
+      </c>
+      <c r="C17">
         <v>12868000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>12777000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>12739000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>12675000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>12500000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>12389000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>12307000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>12247000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>12328000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>12171000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>12088000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>11992000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>11744000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>11574000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>11408000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>11302000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>11270000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>11109000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>11050000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>10936000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>16524000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>16329000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>16157000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>15996000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>15774000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>15593000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>15404000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>15241000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>15062000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>14907000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>14774000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>14403000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>14421000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>14301000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>14229000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>14163000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>13739000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>13477000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>13288000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>1785000000</v>
+      </c>
+      <c r="C18">
         <v>1973000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1983000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1982000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>1953000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2010000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2066000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2073000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2077000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1973000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1894000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1792000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1788000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1775000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1731000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1835000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1871000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1925000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1942000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1907000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1931000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1961000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1899000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1862000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1901000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1785000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1803000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1815000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1844000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1796000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1959000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>2040000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>2064000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1716000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1659000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1665000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1680000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>2026000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>2124000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>2210000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>47766000000</v>
+      </c>
+      <c r="C19">
         <v>47888000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>45728000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>46692000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>43620000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>43332000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>43413000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>40668000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>41267000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>41674000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>41824000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>41584000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>39194000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>39375000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>37872000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>38315000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>34098000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>34138000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>34408000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>28654000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>29011000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>34415000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>33457000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>32329000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>32146000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>32764000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>32173000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>32010000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>30692000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>29656000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>29774000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>28698000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>27419000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>27182000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>26345000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>25438000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>24715000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>24529000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>24677000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>24807000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>53286000000</v>
+      </c>
+      <c r="C20">
         <v>53600000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>51730000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>52154000000</v>
       </c>
-      <c r="E20">
-        <v>50321000000</v>
-      </c>
       <c r="F20">
+        <v>49364000000</v>
+      </c>
+      <c r="G20">
         <v>48443000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>47770000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>45539000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>45440000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>46515000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>47103000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>46225000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>43545000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>43962000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>43537000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>43577000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>38724000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>38667000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>38780000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>33400000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>32950000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>38246000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>36863000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>36177000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>35786000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>36021000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>35268000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>35297000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>33898000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>33164000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>33187000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>32088000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>31183000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>31015000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>30122000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>29626000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>28506000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>28184000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>28502000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>28417000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>5055000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>5030000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>4571000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>4979000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>4947000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>4499000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>4874000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4864000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>4849000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4135000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>4112000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>4523000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>4505000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>3954000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>3929000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>4449000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>3803000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>3778000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>4473000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>4476000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>4454000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>4431000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>4406000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>4421000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>4406000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>4393000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>4381000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>4417000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>4400000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>4377000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>4351000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>4321000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>4299000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>4269000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>4233000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>4210000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>4189000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>4162000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>4134000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>2782000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>2781000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2782000000</v>
-      </c>
-      <c r="E22">
-        <v>2781000000</v>
       </c>
       <c r="F22">
         <v>2781000000</v>
@@ -2995,7 +3157,7 @@
         <v>2781000000</v>
       </c>
       <c r="M22">
-        <v>2780000000</v>
+        <v>2781000000</v>
       </c>
       <c r="N22">
         <v>2780000000</v>
@@ -3007,7 +3169,7 @@
         <v>2780000000</v>
       </c>
       <c r="Q22">
-        <v>2779000000</v>
+        <v>2780000000</v>
       </c>
       <c r="R22">
         <v>2779000000</v>
@@ -3019,7 +3181,7 @@
         <v>2779000000</v>
       </c>
       <c r="U22">
-        <v>2778000000</v>
+        <v>2779000000</v>
       </c>
       <c r="V22">
         <v>2778000000</v>
@@ -3028,22 +3190,22 @@
         <v>2778000000</v>
       </c>
       <c r="X22">
+        <v>2778000000</v>
+      </c>
+      <c r="Y22">
         <v>2779000000</v>
-      </c>
-      <c r="Y22">
-        <v>2777000000</v>
       </c>
       <c r="Z22">
         <v>2777000000</v>
       </c>
       <c r="AA22">
-        <v>2778000000</v>
+        <v>2777000000</v>
       </c>
       <c r="AB22">
         <v>2778000000</v>
       </c>
       <c r="AC22">
-        <v>2776000000</v>
+        <v>2778000000</v>
       </c>
       <c r="AD22">
         <v>2776000000</v>
@@ -3055,7 +3217,7 @@
         <v>2776000000</v>
       </c>
       <c r="AG22">
-        <v>2775000000</v>
+        <v>2776000000</v>
       </c>
       <c r="AH22">
         <v>2775000000</v>
@@ -3064,13 +3226,13 @@
         <v>2775000000</v>
       </c>
       <c r="AJ22">
+        <v>2775000000</v>
+      </c>
+      <c r="AK22">
         <v>1388000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>2774000000</v>
-      </c>
-      <c r="AL22">
-        <v>1387000000</v>
       </c>
       <c r="AM22">
         <v>1387000000</v>
@@ -3078,1102 +3240,1120 @@
       <c r="AN22">
         <v>1387000000</v>
       </c>
+      <c r="AO22">
+        <v>1387000000</v>
+      </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>58047000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>56958000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>55937000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>55049000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>54094000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>53116000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>52019000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>51326000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>50600000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>49892000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>49419000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>48605000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>47875000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>46997000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>46049000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>45284000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>44313000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>43311000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>42359000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>41317000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>34561000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>33847000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>33167000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>32587000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>31940000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>31266000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>30747000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>30233000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>29583000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>28759000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>28034000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>27367000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>26380000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>25456000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>25962000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>23901000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>24476000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>23690000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>22905000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>53309000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>51218000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>50515000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>47734000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>46372000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>44542000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>41826000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>40420000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>39680000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>38984000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>38992000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>36424000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>35839000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>34262000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>33638000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>30674000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>28858000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>28531000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>23800000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>22574000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>21470000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>20220000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>19377000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>18581000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>17654000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>16817000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>16223000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>15529000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>14948000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>13714000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>12886000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>12064000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>11193000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>10346000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>9577000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>8910000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>8135000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>7567000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>7113000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>11743000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>12710000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>11897000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>14161000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>13917000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>14303000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>16254000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>16958000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>17199000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>16452000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>15991000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>18128000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>18016000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>18171000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>17742000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>20423000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>20645000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>19909000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>24389000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>24856000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>19151000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>19615000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>19723000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>19932000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>20284000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>20422000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>20475000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>20702000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>20599000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>20990000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>21057000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>21189000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>21553000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>21440000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>21272000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>21225000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>20774000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>20524000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>20144000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>12163000000</v>
+      </c>
+      <c r="C26">
         <v>11743000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>12710000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>11897000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>14161000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>13917000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>14303000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>16254000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>16958000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>17199000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>16452000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>15991000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>18128000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>18016000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>18171000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>17742000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>20423000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>20645000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>19909000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>24389000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>24856000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>19151000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>19615000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>19723000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>19932000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>20284000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>20422000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>20475000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>20702000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>20599000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>20990000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>21057000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>21189000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>21553000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>21440000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>21272000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>21225000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>20774000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>20524000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>20144000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>65449000000</v>
+      </c>
+      <c r="C27">
         <v>65343000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>64440000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>64051000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>63525000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>62360000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>62073000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>61793000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>62398000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>63714000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>63555000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>62216000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>61673000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>61978000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>61708000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>61319000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>59147000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>59312000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>58689000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>57789000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>57806000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>57397000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>56478000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>55900000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>55718000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>56305000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>55690000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>55772000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>54600000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>53763000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>54177000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>53145000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>52372000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>52568000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>51562000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>50898000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>49731000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>48958000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>49026000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>48561000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>615789000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>625168000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>628202000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>638842000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>644407000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>652955000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>665134000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>671351000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>675033000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>678711000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>678559000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>692101000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>695496000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>704943000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>708456000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>725057000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>737518000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>739460000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>772517000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>780918000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>789835000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>801484000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>809169000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>815824000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>825199000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>834070000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>840939000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>849211000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>855717000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>869483000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>877374000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>883366000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>890884000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>899019000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>906014000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>912002000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>921584000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>928728000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>934276000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>12163000000</v>
+      </c>
+      <c r="C29">
         <v>11743000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>12710000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>11897000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>14161000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>13917000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>14303000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>16254000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>16958000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>17199000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>16452000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>15991000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>18128000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>18016000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>18171000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>17742000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>20423000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>20645000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>19909000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>24389000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>24856000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>19151000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>19615000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>19723000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>19932000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>20284000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>20422000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>20475000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>20702000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>20599000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>20990000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>21057000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>21189000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>21553000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>21440000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>21272000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>21225000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>20774000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>20524000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>20144000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>33725000000</v>
+        <v>32307000000</v>
       </c>
       <c r="C30">
-        <v>32760000000</v>
+        <v>32109000000</v>
       </c>
       <c r="D30">
-        <v>32863000000</v>
+        <v>31173000000</v>
       </c>
       <c r="E30">
-        <v>30463000000</v>
+        <v>31284000000</v>
       </c>
       <c r="F30">
-        <v>29691000000</v>
+        <v>28723000000</v>
       </c>
       <c r="G30">
+        <v>28155000000</v>
+      </c>
+      <c r="H30">
         <v>27651000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>25439000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>24870000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>25399000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>25663000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>26686000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>24309000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>24425000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>24143000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>23993000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>21058000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>20511000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>21119000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>16450000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>15579000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>14896000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>14384000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>13894000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>13670000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>13373000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>13026000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>12520000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>12810000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>12241000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>11298000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>10713000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>9827000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>9618000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>9306000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>8319000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>8145000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>8089000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>7964000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>7944000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>35051000000</v>
+        <v>33326000000</v>
       </c>
       <c r="C31">
-        <v>33616000000</v>
+        <v>33422000000</v>
       </c>
       <c r="D31">
-        <v>33835000000</v>
+        <v>32007000000</v>
       </c>
       <c r="E31">
-        <v>31488000000</v>
+        <v>32239000000</v>
       </c>
       <c r="F31">
-        <v>30963000000</v>
+        <v>29729000000</v>
       </c>
       <c r="G31">
+        <v>29395000000</v>
+      </c>
+      <c r="H31">
         <v>28812000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>26682000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>26729000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>28060000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>28429000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>27876000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>25200000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>25735000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>25252000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>25112000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>22391000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>22411000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>22813000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>17588000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>16944000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>16833000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>15760000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>15033000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>15007000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>15612000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>15186000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>15193000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>14201000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>13319000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>13339000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>12300000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>11413000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>11505000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>10843000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>10176000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>9577000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>9455000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>9809000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>9861000000</v>
       </c>
     </row>
